--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>1.40617240550475</v>
+        <v>11.4786502835235</v>
       </c>
       <c r="R2">
-        <v>5.624689622019</v>
+        <v>45.91460113409399</v>
       </c>
       <c r="S2">
-        <v>0.001578104590775073</v>
+        <v>0.006656927509700646</v>
       </c>
       <c r="T2">
-        <v>0.0009425516883113393</v>
+        <v>0.003851292924692794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>3.465658895436833</v>
+        <v>20.3895490747795</v>
       </c>
       <c r="R3">
-        <v>20.793953372621</v>
+        <v>122.337294448677</v>
       </c>
       <c r="S3">
-        <v>0.003889403739924878</v>
+        <v>0.01182471342829574</v>
       </c>
       <c r="T3">
-        <v>0.003484525756106687</v>
+        <v>0.01026158879525559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>0.7805005894399999</v>
+        <v>6.548325415054498</v>
       </c>
       <c r="R4">
-        <v>4.683003536639999</v>
+        <v>39.28995249032699</v>
       </c>
       <c r="S4">
-        <v>0.0008759321107967467</v>
+        <v>0.003797635307394976</v>
       </c>
       <c r="T4">
-        <v>0.0007847495926794972</v>
+        <v>0.003295620833024105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>2.2971373684025</v>
+        <v>6.86907470362575</v>
       </c>
       <c r="R5">
-        <v>9.188549473609999</v>
+        <v>27.476298814503</v>
       </c>
       <c r="S5">
-        <v>0.002578007513535089</v>
+        <v>0.003983650623661886</v>
       </c>
       <c r="T5">
-        <v>0.001539761907142282</v>
+        <v>0.00230469769108947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>1.390665329323833</v>
+        <v>2.924779200381499</v>
       </c>
       <c r="R6">
-        <v>8.343991975942998</v>
+        <v>17.548675202289</v>
       </c>
       <c r="S6">
-        <v>0.001560701470066116</v>
+        <v>0.001696196211044712</v>
       </c>
       <c r="T6">
-        <v>0.001398236036597217</v>
+        <v>0.001471973772502666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>0.7994290577281666</v>
+        <v>3.2588078140695</v>
       </c>
       <c r="R7">
-        <v>4.796574346369</v>
+        <v>19.552846884417</v>
       </c>
       <c r="S7">
-        <v>0.0008971749559734546</v>
+        <v>0.001889912738037314</v>
       </c>
       <c r="T7">
-        <v>0.0008037811065311948</v>
+        <v>0.001640082653525215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>64.80480456202599</v>
+        <v>89.91613957548134</v>
       </c>
       <c r="R8">
-        <v>388.828827372156</v>
+        <v>539.496837452888</v>
       </c>
       <c r="S8">
-        <v>0.07272846429304301</v>
+        <v>0.05214595865554748</v>
       </c>
       <c r="T8">
-        <v>0.06515759843334978</v>
+        <v>0.04525271485879468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
         <v>159.7182155745782</v>
@@ -1013,10 +1013,10 @@
         <v>1437.463940171204</v>
       </c>
       <c r="S9">
-        <v>0.1792469033256059</v>
+        <v>0.0926269689202812</v>
       </c>
       <c r="T9">
-        <v>0.2408815694275943</v>
+        <v>0.1205737296097634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>35.97011857237333</v>
+        <v>51.29524181522266</v>
       </c>
       <c r="R10">
-        <v>323.73106715136</v>
+        <v>461.657176337004</v>
       </c>
       <c r="S10">
-        <v>0.0403681718028098</v>
+        <v>0.02974815835679289</v>
       </c>
       <c r="T10">
-        <v>0.05424890694552092</v>
+        <v>0.03872356446411807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>105.8657797782733</v>
+        <v>53.80777918569267</v>
       </c>
       <c r="R11">
-        <v>635.19467866964</v>
+        <v>322.846675114156</v>
       </c>
       <c r="S11">
-        <v>0.118809949917988</v>
+        <v>0.0312052790746042</v>
       </c>
       <c r="T11">
-        <v>0.1064421073907259</v>
+        <v>0.02708021163020558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>64.09014607683687</v>
+        <v>22.91078204433644</v>
       </c>
       <c r="R12">
-        <v>576.8113146915319</v>
+        <v>206.197038399028</v>
       </c>
       <c r="S12">
-        <v>0.07192642477648142</v>
+        <v>0.01328687707113267</v>
       </c>
       <c r="T12">
-        <v>0.09665857407869433</v>
+        <v>0.01729570061513843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>36.84245519572845</v>
+        <v>25.52734084774267</v>
       </c>
       <c r="R13">
-        <v>331.582096761556</v>
+        <v>229.746067629684</v>
       </c>
       <c r="S13">
-        <v>0.04134716870577049</v>
+        <v>0.0148043239702813</v>
       </c>
       <c r="T13">
-        <v>0.05556453531105841</v>
+        <v>0.01927098097082607</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>0.6053769749369999</v>
+        <v>10.97576995598067</v>
       </c>
       <c r="R14">
-        <v>3.632261849622</v>
+        <v>65.854619735884</v>
       </c>
       <c r="S14">
-        <v>0.0006793961960551207</v>
+        <v>0.006365287133539665</v>
       </c>
       <c r="T14">
-        <v>0.0006086726146359653</v>
+        <v>0.005523851341023941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>1.492014841188666</v>
+        <v>19.49628175990244</v>
       </c>
       <c r="R15">
-        <v>13.428133570698</v>
+        <v>175.466535839122</v>
       </c>
       <c r="S15">
-        <v>0.001674442949646136</v>
+        <v>0.01130667205452403</v>
       </c>
       <c r="T15">
-        <v>0.002250205934632249</v>
+        <v>0.01471804200201945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>0.3360164684799999</v>
+        <v>6.261442902891332</v>
       </c>
       <c r="R16">
-        <v>3.02414821632</v>
+        <v>56.352986126022</v>
       </c>
       <c r="S16">
-        <v>0.0003771010790771234</v>
+        <v>0.003631260686677393</v>
       </c>
       <c r="T16">
-        <v>0.0005067685860989741</v>
+        <v>0.004726859242849922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>0.9889499080299998</v>
+        <v>6.568140146726334</v>
       </c>
       <c r="R17">
-        <v>5.93369944818</v>
+        <v>39.408840880358</v>
       </c>
       <c r="S17">
-        <v>0.00110986845126471</v>
+        <v>0.003809126661265467</v>
       </c>
       <c r="T17">
-        <v>0.0009943336981510745</v>
+        <v>0.003305593129505944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H18">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I18">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J18">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>0.5987009607926665</v>
+        <v>2.796644455794889</v>
       </c>
       <c r="R18">
-        <v>5.388308647133999</v>
+        <v>25.169800102154</v>
       </c>
       <c r="S18">
-        <v>0.000671903908105216</v>
+        <v>0.001621885757714545</v>
       </c>
       <c r="T18">
-        <v>0.0009029403849444235</v>
+        <v>0.002111229775605683</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>0.3441654399913333</v>
+        <v>3.116039256751334</v>
       </c>
       <c r="R19">
-        <v>3.097488959922</v>
+        <v>28.044353310762</v>
       </c>
       <c r="S19">
-        <v>0.0003862464223520928</v>
+        <v>0.00180711555254454</v>
       </c>
       <c r="T19">
-        <v>0.0005190585872100506</v>
+        <v>0.00235234580755449</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>55.20963575453325</v>
+        <v>136.406817961043</v>
       </c>
       <c r="R20">
-        <v>220.838543018133</v>
+        <v>545.627271844172</v>
       </c>
       <c r="S20">
-        <v>0.06196009770791525</v>
+        <v>0.07910775888860509</v>
       </c>
       <c r="T20">
-        <v>0.03700679602854973</v>
+        <v>0.04576693251534128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>136.0699189640578</v>
+        <v>242.2996990285044</v>
       </c>
       <c r="R21">
-        <v>816.419513784347</v>
+        <v>1453.798194171026</v>
       </c>
       <c r="S21">
-        <v>0.152707138145335</v>
+        <v>0.1405192677026064</v>
       </c>
       <c r="T21">
-        <v>0.1368106762860878</v>
+        <v>0.1219438383617904</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>30.64428876608</v>
+        <v>77.81718327312099</v>
       </c>
       <c r="R22">
-        <v>183.86573259648</v>
+        <v>466.903099638726</v>
       </c>
       <c r="S22">
-        <v>0.03439115473570178</v>
+        <v>0.04512929092384921</v>
       </c>
       <c r="T22">
-        <v>0.03081111462630464</v>
+        <v>0.03916358978931687</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>90.1910156188175</v>
+        <v>81.62881519295351</v>
       </c>
       <c r="R23">
-        <v>360.76406247527</v>
+        <v>326.515260771814</v>
       </c>
       <c r="S23">
-        <v>0.1012186380827407</v>
+        <v>0.04733980842871716</v>
       </c>
       <c r="T23">
-        <v>0.06045467377203746</v>
+        <v>0.0273879306920723</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>54.60079147326682</v>
+        <v>34.75668428851367</v>
       </c>
       <c r="R24">
-        <v>327.604748839601</v>
+        <v>208.540105731082</v>
       </c>
       <c r="S24">
-        <v>0.06127681025925508</v>
+        <v>0.02015678865295689</v>
       </c>
       <c r="T24">
-        <v>0.05489803524603</v>
+        <v>0.01749223588747291</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>31.38746494809717</v>
+        <v>38.72612138919101</v>
       </c>
       <c r="R25">
-        <v>188.324789688583</v>
+        <v>232.356728335146</v>
       </c>
       <c r="S25">
-        <v>0.03522519879744328</v>
+        <v>0.0224588236815399</v>
       </c>
       <c r="T25">
-        <v>0.03155833661949432</v>
+        <v>0.01948996183650658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H26">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I26">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J26">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N26">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O26">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P26">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q26">
-        <v>1.5465844220575</v>
+        <v>128.767646272139</v>
       </c>
       <c r="R26">
-        <v>9.279506532345</v>
+        <v>772.605877632834</v>
       </c>
       <c r="S26">
-        <v>0.001735684733191779</v>
+        <v>0.07467749828207833</v>
       </c>
       <c r="T26">
-        <v>0.001555003944487577</v>
+        <v>0.06480578022257745</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H27">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I27">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J27">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P27">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q27">
-        <v>3.811718988983889</v>
+        <v>228.7302233328164</v>
       </c>
       <c r="R27">
-        <v>34.305470900855</v>
+        <v>2058.572009995347</v>
       </c>
       <c r="S27">
-        <v>0.004277776474429385</v>
+        <v>0.1326497870738167</v>
       </c>
       <c r="T27">
-        <v>0.005748704673291781</v>
+        <v>0.1726719523036132</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H28">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I28">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J28">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N28">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O28">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P28">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q28">
-        <v>0.8584367381333334</v>
+        <v>73.45919858983299</v>
       </c>
       <c r="R28">
-        <v>7.725930643200001</v>
+        <v>661.132787308497</v>
       </c>
       <c r="S28">
-        <v>0.0009633974838611045</v>
+        <v>0.04260192164188091</v>
       </c>
       <c r="T28">
-        <v>0.001294665032363251</v>
+        <v>0.05545547523340983</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H29">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I29">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J29">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N29">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O29">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P29">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q29">
-        <v>2.526515849258334</v>
+        <v>77.05736822760551</v>
       </c>
       <c r="R29">
-        <v>15.15909509555</v>
+        <v>462.344209365633</v>
       </c>
       <c r="S29">
-        <v>0.002835432017277693</v>
+        <v>0.04468864384829217</v>
       </c>
       <c r="T29">
-        <v>0.002540270065684796</v>
+        <v>0.03878119243815756</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H30">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I30">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J30">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N30">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O30">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P30">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q30">
-        <v>1.529528901440556</v>
+        <v>32.81021062549767</v>
       </c>
       <c r="R30">
-        <v>13.765760112965</v>
+        <v>295.291895629479</v>
       </c>
       <c r="S30">
-        <v>0.001716543840312433</v>
+        <v>0.01902795087550162</v>
       </c>
       <c r="T30">
-        <v>0.002306783361800266</v>
+        <v>0.02476893102121416</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.206767</v>
+      </c>
+      <c r="N31">
+        <v>12.620301</v>
+      </c>
+      <c r="O31">
+        <v>0.06331570471998517</v>
+      </c>
+      <c r="P31">
+        <v>0.07185385370383916</v>
+      </c>
+      <c r="Q31">
+        <v>36.55734790294301</v>
+      </c>
+      <c r="R31">
+        <v>329.016131126487</v>
+      </c>
+      <c r="S31">
+        <v>0.02120106536272108</v>
+      </c>
+      <c r="T31">
+        <v>0.02759770240008293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.817691</v>
+      </c>
+      <c r="N32">
+        <v>29.635382</v>
+      </c>
+      <c r="O32">
+        <v>0.2230198506330352</v>
+      </c>
+      <c r="P32">
+        <v>0.1687294465231367</v>
+      </c>
+      <c r="Q32">
+        <v>7.011795591194334</v>
+      </c>
+      <c r="R32">
+        <v>42.070773547166</v>
+      </c>
+      <c r="S32">
+        <v>0.004066420163563973</v>
+      </c>
+      <c r="T32">
+        <v>0.003528874660706565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N33">
+        <v>78.962081</v>
+      </c>
+      <c r="O33">
+        <v>0.3961505993138794</v>
+      </c>
+      <c r="P33">
+        <v>0.4495716715730233</v>
+      </c>
+      <c r="Q33">
+        <v>12.45506629940589</v>
+      </c>
+      <c r="R33">
+        <v>112.095596694653</v>
+      </c>
+      <c r="S33">
+        <v>0.007223190134355204</v>
+      </c>
+      <c r="T33">
+        <v>0.009402520500581341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.453176999999998</v>
+      </c>
+      <c r="N34">
+        <v>25.359531</v>
+      </c>
+      <c r="O34">
+        <v>0.1272280729780779</v>
+      </c>
+      <c r="P34">
+        <v>0.144384831270821</v>
+      </c>
+      <c r="Q34">
+        <v>4.000079986833666</v>
+      </c>
+      <c r="R34">
+        <v>36.000719881503</v>
+      </c>
+      <c r="S34">
+        <v>0.002319806061482535</v>
+      </c>
+      <c r="T34">
+        <v>0.003019721708102248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.867229500000001</v>
+      </c>
+      <c r="N35">
+        <v>17.734459</v>
+      </c>
+      <c r="O35">
+        <v>0.133459943159757</v>
+      </c>
+      <c r="P35">
+        <v>0.1009713811503176</v>
+      </c>
+      <c r="Q35">
+        <v>4.196011424061167</v>
+      </c>
+      <c r="R35">
+        <v>25.176068544367</v>
+      </c>
+      <c r="S35">
+        <v>0.002433434523216153</v>
+      </c>
+      <c r="T35">
+        <v>0.002111755569286723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.434455</v>
-      </c>
-      <c r="I31">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J31">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N31">
-        <v>18.214309</v>
-      </c>
-      <c r="O31">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P31">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q31">
-        <v>0.879255290732778</v>
-      </c>
-      <c r="R31">
-        <v>7.913297616595001</v>
-      </c>
-      <c r="S31">
-        <v>0.0009867615132659361</v>
-      </c>
-      <c r="T31">
-        <v>0.001326062863883749</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.775572333333333</v>
+      </c>
+      <c r="N36">
+        <v>11.326717</v>
+      </c>
+      <c r="O36">
+        <v>0.05682582919526532</v>
+      </c>
+      <c r="P36">
+        <v>0.06448881577886201</v>
+      </c>
+      <c r="Q36">
+        <v>1.786617188946778</v>
+      </c>
+      <c r="R36">
+        <v>16.079554700521</v>
+      </c>
+      <c r="S36">
+        <v>0.001036130626914878</v>
+      </c>
+      <c r="T36">
+        <v>0.001348744706928167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.206767</v>
+      </c>
+      <c r="N37">
+        <v>12.620301</v>
+      </c>
+      <c r="O37">
+        <v>0.06331570471998517</v>
+      </c>
+      <c r="P37">
+        <v>0.07185385370383916</v>
+      </c>
+      <c r="Q37">
+        <v>1.990660373723667</v>
+      </c>
+      <c r="R37">
+        <v>17.915943363513</v>
+      </c>
+      <c r="S37">
+        <v>0.001154463414861028</v>
+      </c>
+      <c r="T37">
+        <v>0.001502780035343891</v>
       </c>
     </row>
   </sheetData>
